--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3443,4 +3444,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163823</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>31.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安股息精选沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3994,4 +3995,476 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4467,4 +4468,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4476,7 +4477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4487,17 +4488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4507,14 +4528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4523,14 +4566,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -4539,14 +4672,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="5">
@@ -4555,13 +4688,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>14.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4609,7 +4610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4620,17 +4621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4640,14 +4661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.17</v>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4656,14 +4699,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
@@ -4672,14 +4805,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -4688,14 +4821,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">
@@ -4704,13 +4837,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>14.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4742,7 +4743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4753,17 +4754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4773,14 +4794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4789,14 +4832,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4805,14 +4870,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.25</v>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4821,14 +4908,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.74</v>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4837,14 +4946,150 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="7">
@@ -4853,13 +5098,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>14.52</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>14.52</v>
       </c>
     </row>
@@ -600,6 +617,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011093</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢宏泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>47.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006836</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢惠泽一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>46.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159620</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证智选500成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,138 +2427,6 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004209</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0665</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1042,22 +2501,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1080,22 +2539,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1108,6 +2567,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1579,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2129,7 +3720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3097,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603658-安图生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>2.13</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.74</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2062 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>14.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008681</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1226</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银行业成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9923</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7664</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6252</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>26.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001696</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方智造未来股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>610007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信达澳银消费优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004763</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004534</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富年年益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004451</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富年年丰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004764</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中科沃土沃嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004452</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富年年丰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004535</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富年年益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2666,2110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛生态环境主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛转型升级主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012432</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007063</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛研发回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012019</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014695</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014696</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛先进制造六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005212</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安稳裕债券</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014206</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014205</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中证医药卫生指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012020</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国投瑞银安泽混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012431</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银安泰混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002732</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛沪港深优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010915</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>016461</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>017213</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002157</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长盛盛世灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012716</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>017485</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +6343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2427,138 +6580,6 @@
       </c>
       <c r="H6" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004209</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成智惠量化多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0834</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161224</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0665</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2633,22 +6654,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0957</t>
+          <t>0.0834</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2671,22 +6692,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2699,6 +6720,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成智惠量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3170,7 +7323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3720,7 +7873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4686,2036 +8839,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000913</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>农银医疗保健主题股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>31.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.4956</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008681</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华价值成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>56.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.4501</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008293</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>农银汇理创新医疗混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2720</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000960</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商医药健康产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.1226</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1057</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>660001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>农银行业成长混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9923</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001915</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宝盈医疗健康沪港深股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8486</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009360</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商创新增长混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.7664</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>871003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发资管价值增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.6252</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006218</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.5741</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000020</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城品质投资混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4335</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002160</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方转型驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1640</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>217013</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1282</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003601</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华兴悦定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>8.35</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>26.88</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0835</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001327</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003663</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华兴泰定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>26.61</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001331</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003142</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005260</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.70</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0737</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009361</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商创新增长混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.78</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0699</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0638</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006882</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0631</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004687</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001861</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富安达健康人生灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>89.90</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0611</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006883</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华泰保兴健康消费混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>84.27</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000326</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方中小盘成长股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000327</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>南方潜力新蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.09</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0353</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001696</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>南方智造未来股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003143</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华弘达灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>26.11</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004688</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001328</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>鹏华弘华灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004436</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002919</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>东吴智慧医疗量化策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>鹏华弘信灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>26.16</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>610007</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>信达澳银消费优选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0145</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>585001</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>东吴中证新兴</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>006230</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>鹏华研究驱动混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.25</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>003602</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫精选混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>004763</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>011308</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国生物医药科技混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.88</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004534</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>汇添富年年益定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004451</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>汇添富年年丰定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>22.86</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004437</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>汇添富年年泰定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>28.56</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004764</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>中科沃土沃嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>7.72</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004452</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>汇添富年年丰定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>22.86</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>004535</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>汇添富年年益定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>25.79</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>005261</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>